--- a/docs/StructureDefinition-ImplantableDeviceProsthesis.xlsx
+++ b/docs/StructureDefinition-ImplantableDeviceProsthesis.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ImplantableDeviceProsthesis.xlsx
+++ b/docs/StructureDefinition-ImplantableDeviceProsthesis.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ImplantableDeviceProsthesis.xlsx
+++ b/docs/StructureDefinition-ImplantableDeviceProsthesis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ImplantableDeviceProsthesis.xlsx
+++ b/docs/StructureDefinition-ImplantableDeviceProsthesis.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ImplantableDeviceProsthesis.xlsx
+++ b/docs/StructureDefinition-ImplantableDeviceProsthesis.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1313,7 +1313,50 @@
     <t>1399: reference based on SURGERY - PATIENT (130-.01)</t>
   </si>
   <si>
-    <t>SPatient.ImplantedProsthesis.PatientIEN,SPatient.OperationsIndication.PatientIEN,Surg.AnesthesiaAgent.PatientIEN,Surg.AnesthesiaBlockSite.PatientIEN,Surg.AnesthesiaTechnique.PatientIEN,Surg.AnesthesiaTestDose.PatientIEN,Surg.ReferringPhysician.PatientIEN,Surg.ReferringPhysician.PatientSID,Surg.ReplacementFluidType.PatientIEN,Surg.ReplacementFluidType.PatientSID,Surg.SurgeryAssistant.PatientIEN,Surg.SurgeryAssistantOther.PatientIEN,Surg.SurgeryDelay.PatientIEN,Surg.SurgeryINTRA.PatientIEN,Surg.SurgeryIrrigation.PatientIEN,Surg.SurgeryIrrigation.PatientSID,Surg.SurgeryMedication.PatientIEN,Surg.SurgeryOccurrenceNonOp.PatientIEN,Surg.SurgeryOccurrenceNonOp.PatientSID,Surg.SurgeryOtherPostOpDiagnosis.PatientIEN,Surg.SurgeryOtherProcedure.PatientIEN,Surg.SurgeryOtherProcedureCPTModifier.PatientIEN,Surg.SurgeryOtherProcedureCPTModifier.PatientSID,Surg.SurgeryOtherProcedureDiagnosis.PatientIEN,Surg.SurgeryPOST.PatientIEN,Surg.SurgeryPostOpDiagnosis.PatientIEN,Surg.SurgeryPreOpDiagnosis.PatientIEN,Surg.SurgeryPreOpDiagnosis.PatientSID,Surg.SurgeryPrincipalAssociatedDiagnosis.PatientIEN,Surg.SurgeryPrincipalAssociatedProcedure.PatientIEN,Surg.SurgeryPrincipalCPTModifier.PatientIEN,Surg.SurgeryPrincipalDiagnosis.PatientIEN,Surg.SurgeryProcedureCPTModifier.PatientIEN,Surg.SurgeryProcedureDiagnosisCode.PatientIEN,Surg.SurgeryProcedureOccurrence.PatientIEN,Surg.SurgeryProcedureOccurrence.PatientSID,Surg.SurgeryRequiredBloodProducts.PatientIEN,Surg.SurgeryReturnCase.PatientIEN,Surg.SurgORCircSupport.PatientIEN,Surg.SurgORCircSupportTime.PatientIEN,Surg.SurgORCircSupportTime.PatientSID,Surg.SurgORScrubSupport.PatientIEN,Surg.SurgORScrubSupportTime.PatientIEN,Surg.SurgORScrubSupportTime.PatientSID</t>
+    <t>SPatient.ImplantedProsthesis.PatientIEN
+SPatient.OperationsIndication.PatientIEN
+Surg.AnesthesiaAgent.PatientIEN
+Surg.AnesthesiaBlockSite.PatientIEN
+Surg.AnesthesiaTechnique.PatientIEN
+Surg.AnesthesiaTestDose.PatientIEN
+Surg.ReferringPhysician.PatientIEN
+Surg.ReferringPhysician.PatientSID
+Surg.ReplacementFluidType.PatientIEN
+Surg.ReplacementFluidType.PatientSID
+Surg.SurgeryAssistant.PatientIEN
+Surg.SurgeryAssistantOther.PatientIEN
+Surg.SurgeryDelay.PatientIEN
+Surg.SurgeryINTRA.PatientIEN
+Surg.SurgeryIrrigation.PatientIEN
+Surg.SurgeryIrrigation.PatientSID
+Surg.SurgeryMedication.PatientIEN
+Surg.SurgeryOccurrenceNonOp.PatientIEN
+Surg.SurgeryOccurrenceNonOp.PatientSID
+Surg.SurgeryOtherPostOpDiagnosis.PatientIEN
+Surg.SurgeryOtherProcedure.PatientIEN
+Surg.SurgeryOtherProcedureCPTModifier.PatientIEN
+Surg.SurgeryOtherProcedureCPTModifier.PatientSID
+Surg.SurgeryOtherProcedureDiagnosis.PatientIEN
+Surg.SurgeryPOST.PatientIEN
+Surg.SurgeryPostOpDiagnosis.PatientIEN
+Surg.SurgeryPreOpDiagnosis.PatientIEN
+Surg.SurgeryPreOpDiagnosis.PatientSID
+Surg.SurgeryPrincipalAssociatedDiagnosis.PatientIEN
+Surg.SurgeryPrincipalAssociatedProcedure.PatientIEN
+Surg.SurgeryPrincipalCPTModifier.PatientIEN
+Surg.SurgeryPrincipalDiagnosis.PatientIEN
+Surg.SurgeryProcedureCPTModifier.PatientIEN
+Surg.SurgeryProcedureDiagnosisCode.PatientIEN
+Surg.SurgeryProcedureOccurrence.PatientIEN
+Surg.SurgeryProcedureOccurrence.PatientSID
+Surg.SurgeryRequiredBloodProducts.PatientIEN
+Surg.SurgeryReturnCase.PatientIEN
+Surg.SurgORCircSupport.PatientIEN
+Surg.SurgORCircSupportTime.PatientIEN
+Surg.SurgORCircSupportTime.PatientSID
+Surg.SurgORScrubSupport.PatientIEN
+Surg.SurgORScrubSupportTime.PatientIEN
+Surg.SurgORScrubSupportTime.PatientSID</t>
   </si>
   <si>
     <t>Procedure.Procedure[CodeTableDetail.Procedure].Code</t>
@@ -1341,13 +1384,15 @@
     <t>1807: reference based on SURGERY - DIVISION (130-50)</t>
   </si>
   <si>
-    <t>Surg.SurgeryINTRA.InstitutionIEN,Surg.SurgeryPOST.InstitutionIEN</t>
+    <t>Surg.SurgeryINTRA.InstitutionIEN
+Surg.SurgeryPOST.InstitutionIEN</t>
   </si>
   <si>
     <t>Procedure.EnteredAt</t>
   </si>
   <si>
-    <t>surgery.facility (&gt;4-.01),surgery.facility (&gt;4-99)</t>
+    <t>surgery.facility (&gt;4-.01)
+surgery.facility (&gt;4-99)</t>
   </si>
   <si>
     <t>.playedRole[typeCode=OWN].scoper</t>
@@ -1812,7 +1857,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="97.40234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.12890625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="44.60546875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="87.9765625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-ImplantableDeviceProsthesis.xlsx
+++ b/docs/StructureDefinition-ImplantableDeviceProsthesis.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ImplantableDeviceProsthesis.xlsx
+++ b/docs/StructureDefinition-ImplantableDeviceProsthesis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1310,7 +1310,11 @@
     <t>If the device is implanted in a patient, then need to associate the device to the patient.</t>
   </si>
   <si>
-    <t>1399: reference based on SURGERY - PATIENT (130-.01)</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+idp-27-1399:If {.47&gt;130.01} then reference /Patient based on (130-.01) {true}</t>
+  </si>
+  <si>
+    <t>1399: reference based on SURGERY - PATIENT (130-.01) if {.47&gt;130.01}</t>
   </si>
   <si>
     <t>SPatient.ImplantedProsthesis.PatientIEN
@@ -1381,7 +1385,11 @@
     <t>An organization that is responsible for the provision and ongoing maintenance of the device.</t>
   </si>
   <si>
-    <t>1807: reference based on SURGERY - DIVISION (130-50)</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+idp-27-1807:If {.47&gt;130.01} then reference /Organization based on (130-50) {true}</t>
+  </si>
+  <si>
+    <t>1807: reference based on SURGERY - DIVISION (130-50) if {.47&gt;130.01}</t>
   </si>
   <si>
     <t>Surg.SurgeryINTRA.InstitutionIEN
@@ -10167,25 +10175,25 @@
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>100</v>
+        <v>411</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AQ68" t="s" s="2">
         <v>80</v>
@@ -10193,10 +10201,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10219,13 +10227,13 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10276,7 +10284,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10288,25 +10296,25 @@
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>421</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AQ69" t="s" s="2">
         <v>80</v>
@@ -10314,10 +10322,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10340,16 +10348,16 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10399,7 +10407,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10426,10 +10434,10 @@
         <v>80</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AQ70" t="s" s="2">
         <v>80</v>
@@ -10437,10 +10445,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10463,17 +10471,17 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10522,7 +10530,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10549,10 +10557,10 @@
         <v>80</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AQ71" t="s" s="2">
         <v>80</v>
@@ -10560,10 +10568,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10589,13 +10597,13 @@
         <v>102</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10645,7 +10653,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10672,10 +10680,10 @@
         <v>80</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AQ72" t="s" s="2">
         <v>80</v>
@@ -10683,10 +10691,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10709,13 +10717,13 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10766,7 +10774,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -10793,7 +10801,7 @@
         <v>80</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>80</v>
@@ -10804,10 +10812,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10833,10 +10841,10 @@
         <v>176</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10887,7 +10895,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -10925,10 +10933,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10951,13 +10959,13 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11008,7 +11016,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
